--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Vegfc-Kdr.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Vegfc-Kdr.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.31479480473059</v>
+        <v>3.263122</v>
       </c>
       <c r="H2">
-        <v>1.31479480473059</v>
+        <v>9.789365999999999</v>
       </c>
       <c r="I2">
-        <v>0.1851443592850472</v>
+        <v>0.3531375780718168</v>
       </c>
       <c r="J2">
-        <v>0.1851443592850472</v>
+        <v>0.3531375780718168</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>32.2492471506313</v>
+        <v>127.6999736666667</v>
       </c>
       <c r="N2">
-        <v>32.2492471506313</v>
+        <v>383.099921</v>
       </c>
       <c r="O2">
-        <v>0.8869022057599736</v>
+        <v>0.9554352891750322</v>
       </c>
       <c r="P2">
-        <v>0.8869022057599736</v>
+        <v>0.9554352891750322</v>
       </c>
       <c r="Q2">
-        <v>42.40114261012281</v>
+        <v>416.7005934711206</v>
       </c>
       <c r="R2">
-        <v>42.40114261012281</v>
+        <v>3750.305341240086</v>
       </c>
       <c r="S2">
-        <v>0.1642049406339254</v>
+        <v>0.3374001040236168</v>
       </c>
       <c r="T2">
-        <v>0.1642049406339254</v>
+        <v>0.3374001040236168</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.31479480473059</v>
+        <v>3.263122</v>
       </c>
       <c r="H3">
-        <v>1.31479480473059</v>
+        <v>9.789365999999999</v>
       </c>
       <c r="I3">
-        <v>0.1851443592850472</v>
+        <v>0.3531375780718168</v>
       </c>
       <c r="J3">
-        <v>0.1851443592850472</v>
+        <v>0.3531375780718168</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.41958075203849</v>
+        <v>0.4321196666666667</v>
       </c>
       <c r="N3">
-        <v>0.41958075203849</v>
+        <v>1.296359</v>
       </c>
       <c r="O3">
-        <v>0.01153909400548846</v>
+        <v>0.003233065495828321</v>
       </c>
       <c r="P3">
-        <v>0.01153909400548846</v>
+        <v>0.003233065495828321</v>
       </c>
       <c r="Q3">
-        <v>0.5516625929451605</v>
+        <v>1.410059190932667</v>
       </c>
       <c r="R3">
-        <v>0.5516625929451605</v>
+        <v>12.690532718394</v>
       </c>
       <c r="S3">
-        <v>0.00213639816637609</v>
+        <v>0.001141716918944371</v>
       </c>
       <c r="T3">
-        <v>0.00213639816637609</v>
+        <v>0.001141716918944371</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.31479480473059</v>
+        <v>3.263122</v>
       </c>
       <c r="H4">
-        <v>1.31479480473059</v>
+        <v>9.789365999999999</v>
       </c>
       <c r="I4">
-        <v>0.1851443592850472</v>
+        <v>0.3531375780718168</v>
       </c>
       <c r="J4">
-        <v>0.1851443592850472</v>
+        <v>0.3531375780718168</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.28076905806601</v>
+        <v>4.77305</v>
       </c>
       <c r="N4">
-        <v>3.28076905806601</v>
+        <v>14.31915</v>
       </c>
       <c r="O4">
-        <v>0.09022602297030229</v>
+        <v>0.03571136528892854</v>
       </c>
       <c r="P4">
-        <v>0.09022602297030229</v>
+        <v>0.03571136528892854</v>
       </c>
       <c r="Q4">
-        <v>4.313538113066061</v>
+        <v>15.5750444621</v>
       </c>
       <c r="R4">
-        <v>4.313538113066061</v>
+        <v>140.1754001589</v>
       </c>
       <c r="S4">
-        <v>0.01670483921367457</v>
+        <v>0.01261102504777017</v>
       </c>
       <c r="T4">
-        <v>0.01670483921367457</v>
+        <v>0.01261102504777017</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.31479480473059</v>
+        <v>3.263122</v>
       </c>
       <c r="H5">
-        <v>1.31479480473059</v>
+        <v>9.789365999999999</v>
       </c>
       <c r="I5">
-        <v>0.1851443592850472</v>
+        <v>0.3531375780718168</v>
       </c>
       <c r="J5">
-        <v>0.1851443592850472</v>
+        <v>0.3531375780718168</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.412075094186404</v>
+        <v>0.751186</v>
       </c>
       <c r="N5">
-        <v>0.412075094186404</v>
+        <v>2.253558</v>
       </c>
       <c r="O5">
-        <v>0.01133267726423549</v>
+        <v>0.00562028004021099</v>
       </c>
       <c r="P5">
-        <v>0.01133267726423549</v>
+        <v>0.00562028004021099</v>
       </c>
       <c r="Q5">
-        <v>0.5417941929951525</v>
+        <v>2.451211562692</v>
       </c>
       <c r="R5">
-        <v>0.5417941929951525</v>
+        <v>22.060904064228</v>
       </c>
       <c r="S5">
-        <v>0.002098181271071102</v>
+        <v>0.001984732081485482</v>
       </c>
       <c r="T5">
-        <v>0.002098181271071102</v>
+        <v>0.001984732081485482</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.21924831173834</v>
+        <v>4.367310666666667</v>
       </c>
       <c r="H6">
-        <v>4.21924831173834</v>
+        <v>13.101932</v>
       </c>
       <c r="I6">
-        <v>0.5941383572027266</v>
+        <v>0.4726337266929886</v>
       </c>
       <c r="J6">
-        <v>0.5941383572027266</v>
+        <v>0.4726337266929886</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>32.2492471506313</v>
+        <v>127.6999736666667</v>
       </c>
       <c r="N6">
-        <v>32.2492471506313</v>
+        <v>383.099921</v>
       </c>
       <c r="O6">
-        <v>0.8869022057599736</v>
+        <v>0.9554352891750322</v>
       </c>
       <c r="P6">
-        <v>0.8869022057599736</v>
+        <v>0.9554352891750322</v>
       </c>
       <c r="Q6">
-        <v>136.0675815951336</v>
+        <v>557.7054571274857</v>
       </c>
       <c r="R6">
-        <v>136.0675815951336</v>
+        <v>5019.349114147371</v>
       </c>
       <c r="S6">
-        <v>0.5269426195297052</v>
+        <v>0.4515709413367887</v>
       </c>
       <c r="T6">
-        <v>0.5269426195297052</v>
+        <v>0.4515709413367887</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.21924831173834</v>
+        <v>4.367310666666667</v>
       </c>
       <c r="H7">
-        <v>4.21924831173834</v>
+        <v>13.101932</v>
       </c>
       <c r="I7">
-        <v>0.5941383572027266</v>
+        <v>0.4726337266929886</v>
       </c>
       <c r="J7">
-        <v>0.5941383572027266</v>
+        <v>0.4726337266929886</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.41958075203849</v>
+        <v>0.4321196666666667</v>
       </c>
       <c r="N7">
-        <v>0.41958075203849</v>
+        <v>1.296359</v>
       </c>
       <c r="O7">
-        <v>0.01153909400548846</v>
+        <v>0.003233065495828321</v>
       </c>
       <c r="P7">
-        <v>0.01153909400548846</v>
+        <v>0.003233065495828321</v>
       </c>
       <c r="Q7">
-        <v>1.770315379676302</v>
+        <v>1.887200829509778</v>
       </c>
       <c r="R7">
-        <v>1.770315379676302</v>
+        <v>16.984807465588</v>
       </c>
       <c r="S7">
-        <v>0.006855818356028742</v>
+        <v>0.001528055793935854</v>
       </c>
       <c r="T7">
-        <v>0.006855818356028742</v>
+        <v>0.001528055793935854</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.21924831173834</v>
+        <v>4.367310666666667</v>
       </c>
       <c r="H8">
-        <v>4.21924831173834</v>
+        <v>13.101932</v>
       </c>
       <c r="I8">
-        <v>0.5941383572027266</v>
+        <v>0.4726337266929886</v>
       </c>
       <c r="J8">
-        <v>0.5941383572027266</v>
+        <v>0.4726337266929886</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.28076905806601</v>
+        <v>4.77305</v>
       </c>
       <c r="N8">
-        <v>3.28076905806601</v>
+        <v>14.31915</v>
       </c>
       <c r="O8">
-        <v>0.09022602297030229</v>
+        <v>0.03571136528892854</v>
       </c>
       <c r="P8">
-        <v>0.09022602297030229</v>
+        <v>0.03571136528892854</v>
       </c>
       <c r="Q8">
-        <v>13.8423793094484</v>
+        <v>20.84539217753333</v>
       </c>
       <c r="R8">
-        <v>13.8423793094484</v>
+        <v>187.6085295978</v>
       </c>
       <c r="S8">
-        <v>0.05360674106451087</v>
+        <v>0.01687839566180093</v>
       </c>
       <c r="T8">
-        <v>0.05360674106451087</v>
+        <v>0.01687839566180093</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.21924831173834</v>
+        <v>4.367310666666667</v>
       </c>
       <c r="H9">
-        <v>4.21924831173834</v>
+        <v>13.101932</v>
       </c>
       <c r="I9">
-        <v>0.5941383572027266</v>
+        <v>0.4726337266929886</v>
       </c>
       <c r="J9">
-        <v>0.5941383572027266</v>
+        <v>0.4726337266929886</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.412075094186404</v>
+        <v>0.751186</v>
       </c>
       <c r="N9">
-        <v>0.412075094186404</v>
+        <v>2.253558</v>
       </c>
       <c r="O9">
-        <v>0.01133267726423549</v>
+        <v>0.00562028004021099</v>
       </c>
       <c r="P9">
-        <v>0.01133267726423549</v>
+        <v>0.00562028004021099</v>
       </c>
       <c r="Q9">
-        <v>1.738647145455403</v>
+        <v>3.280662630450667</v>
       </c>
       <c r="R9">
-        <v>1.738647145455403</v>
+        <v>29.525963674056</v>
       </c>
       <c r="S9">
-        <v>0.006733178252481565</v>
+        <v>0.00265633390046314</v>
       </c>
       <c r="T9">
-        <v>0.006733178252481565</v>
+        <v>0.00265633390046314</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.56741441541482</v>
+        <v>1.609937666666666</v>
       </c>
       <c r="H10">
-        <v>1.56741441541482</v>
+        <v>4.829813</v>
       </c>
       <c r="I10">
-        <v>0.2207172835122262</v>
+        <v>0.1742286952351946</v>
       </c>
       <c r="J10">
-        <v>0.2207172835122262</v>
+        <v>0.1742286952351946</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>32.2492471506313</v>
+        <v>127.6999736666667</v>
       </c>
       <c r="N10">
-        <v>32.2492471506313</v>
+        <v>383.099921</v>
       </c>
       <c r="O10">
-        <v>0.8869022057599736</v>
+        <v>0.9554352891750322</v>
       </c>
       <c r="P10">
-        <v>0.8869022057599736</v>
+        <v>0.9554352891750322</v>
       </c>
       <c r="Q10">
-        <v>50.54793487017481</v>
+        <v>205.5889976383081</v>
       </c>
       <c r="R10">
-        <v>50.54793487017481</v>
+        <v>1850.300978744773</v>
       </c>
       <c r="S10">
-        <v>0.1957546455963429</v>
+        <v>0.1664642438146267</v>
       </c>
       <c r="T10">
-        <v>0.1957546455963429</v>
+        <v>0.1664642438146267</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.56741441541482</v>
+        <v>1.609937666666666</v>
       </c>
       <c r="H11">
-        <v>1.56741441541482</v>
+        <v>4.829813</v>
       </c>
       <c r="I11">
-        <v>0.2207172835122262</v>
+        <v>0.1742286952351946</v>
       </c>
       <c r="J11">
-        <v>0.2207172835122262</v>
+        <v>0.1742286952351946</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.41958075203849</v>
+        <v>0.4321196666666667</v>
       </c>
       <c r="N11">
-        <v>0.41958075203849</v>
+        <v>1.296359</v>
       </c>
       <c r="O11">
-        <v>0.01153909400548846</v>
+        <v>0.003233065495828321</v>
       </c>
       <c r="P11">
-        <v>0.01153909400548846</v>
+        <v>0.003233065495828321</v>
       </c>
       <c r="Q11">
-        <v>0.6576569191757203</v>
+        <v>0.6956857278741111</v>
       </c>
       <c r="R11">
-        <v>0.6576569191757203</v>
+        <v>6.261171550867</v>
       </c>
       <c r="S11">
-        <v>0.002546877483083626</v>
+        <v>0.0005632927829480957</v>
       </c>
       <c r="T11">
-        <v>0.002546877483083626</v>
+        <v>0.0005632927829480957</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>25</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.56741441541482</v>
+        <v>1.609937666666666</v>
       </c>
       <c r="H12">
-        <v>1.56741441541482</v>
+        <v>4.829813</v>
       </c>
       <c r="I12">
-        <v>0.2207172835122262</v>
+        <v>0.1742286952351946</v>
       </c>
       <c r="J12">
-        <v>0.2207172835122262</v>
+        <v>0.1742286952351946</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.28076905806601</v>
+        <v>4.77305</v>
       </c>
       <c r="N12">
-        <v>3.28076905806601</v>
+        <v>14.31915</v>
       </c>
       <c r="O12">
-        <v>0.09022602297030229</v>
+        <v>0.03571136528892854</v>
       </c>
       <c r="P12">
-        <v>0.09022602297030229</v>
+        <v>0.03571136528892854</v>
       </c>
       <c r="Q12">
-        <v>5.142324715259565</v>
+        <v>7.684312979883333</v>
       </c>
       <c r="R12">
-        <v>5.142324715259565</v>
+        <v>69.15881681895</v>
       </c>
       <c r="S12">
-        <v>0.01991444269211684</v>
+        <v>0.006221944579357436</v>
       </c>
       <c r="T12">
-        <v>0.01991444269211684</v>
+        <v>0.006221944579357436</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.56741441541482</v>
+        <v>1.609937666666666</v>
       </c>
       <c r="H13">
-        <v>1.56741441541482</v>
+        <v>4.829813</v>
       </c>
       <c r="I13">
-        <v>0.2207172835122262</v>
+        <v>0.1742286952351946</v>
       </c>
       <c r="J13">
-        <v>0.2207172835122262</v>
+        <v>0.1742286952351946</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.412075094186404</v>
+        <v>0.751186</v>
       </c>
       <c r="N13">
-        <v>0.412075094186404</v>
+        <v>2.253558</v>
       </c>
       <c r="O13">
-        <v>0.01133267726423549</v>
+        <v>0.00562028004021099</v>
       </c>
       <c r="P13">
-        <v>0.01133267726423549</v>
+        <v>0.00562028004021099</v>
       </c>
       <c r="Q13">
-        <v>0.6458924428611893</v>
+        <v>1.209362636072667</v>
       </c>
       <c r="R13">
-        <v>0.6458924428611893</v>
+        <v>10.884263724654</v>
       </c>
       <c r="S13">
-        <v>0.002501317740682825</v>
+        <v>0.0009792140582623678</v>
       </c>
       <c r="T13">
-        <v>0.002501317740682825</v>
+        <v>0.0009792140582623678</v>
       </c>
     </row>
   </sheetData>
